--- a/entrainment_rate_comparisons.xlsx
+++ b/entrainment_rate_comparisons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kleinschmidtgroup-my.sharepoint.com/personal/kevin_nebiolo_kleinschmidtgroup_com/Documents/Software/stryke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E10EBC93-7616-489A-9D5B-C9289CFA8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{779E016A-B11E-469E-ADE5-CF3020A062B7}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{E10EBC93-7616-489A-9D5B-C9289CFA8FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4CC9950-21AC-4E52-8516-61F10C48BE9E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{92997596-C3D2-4652-A39F-1CAC5E00394E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{92997596-C3D2-4652-A39F-1CAC5E00394E}"/>
   </bookViews>
   <sheets>
     <sheet name="NFM" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Millstone!$C$1:$C$1500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NFM!$H$1:$H$95</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">NFM!$J$2:$J$95</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Millstone!$G$2:$G$1388</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Millstone!$G$2:$G$1388</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">NFM!$J$2:$J$95</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">NFM!$J$2:$J$95</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Millstone!$G$2:$G$1388</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -532,28 +534,119 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Egg/m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="30000">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Alosa sapidissima </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>- American Shad</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{FE8D327F-BA21-4CC6-9804-2688AC9614D5}">
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
+            <cx:binning intervalClosed="r">
+              <cx:binCount val="10"/>
+            </cx:binning>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -566,12 +659,39 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Carcinus maenas - Green Crab Count Per Sample</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Carcinus maenas - Green Crab Count Per Sample</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{E339F8FF-2AC8-485E-B1A3-26846B40B6AA}">
@@ -587,7 +707,6 @@
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -1695,16 +1814,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>309562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>309562</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1740,8 +1859,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7667625" y="1947862"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6858000" y="881062"/>
+              <a:ext cx="6000750" cy="3328988"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1823,8 +1942,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4833937" y="5910262"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4833937" y="5905500"/>
+              <a:ext cx="4572000" cy="2747962"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2154,10 +2273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE108494-39FD-4439-924B-EB989411DEB6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2191,7 +2311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -2224,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2257,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -2323,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2356,7 +2476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -2422,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -2455,7 +2575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -2488,7 +2608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -2521,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -2620,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -2653,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -2686,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -2719,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -2785,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2818,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -2851,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2884,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -2950,7 +3070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -3412,7 +3532,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -3478,7 +3598,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>9</v>
       </c>
@@ -3544,7 +3664,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>9</v>
       </c>
@@ -3676,7 +3796,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>9</v>
       </c>
@@ -3742,7 +3862,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>9</v>
       </c>
@@ -3775,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -3808,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -3841,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -3874,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3907,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -3973,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -4039,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
@@ -4072,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -4105,7 +4225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -4138,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>9</v>
       </c>
@@ -4171,7 +4291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>9</v>
       </c>
@@ -4204,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -4237,7 +4357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>9</v>
       </c>
@@ -4270,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>9</v>
       </c>
@@ -4402,7 +4522,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>9</v>
       </c>
@@ -4435,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>9</v>
       </c>
@@ -4468,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>9</v>
       </c>
@@ -4501,7 +4621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>9</v>
       </c>
@@ -4534,7 +4654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -4567,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -4600,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>9</v>
       </c>
@@ -4633,7 +4753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>9</v>
       </c>
@@ -4666,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>9</v>
       </c>
@@ -4699,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>9</v>
       </c>
@@ -4732,7 +4852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>9</v>
       </c>
@@ -4765,7 +4885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>9</v>
       </c>
@@ -4798,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -4831,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>9</v>
       </c>
@@ -4864,7 +4984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>9</v>
       </c>
@@ -4897,7 +5017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>9</v>
       </c>
@@ -4930,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>9</v>
       </c>
@@ -4963,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4996,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>9</v>
       </c>
@@ -5029,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>9</v>
       </c>
@@ -5062,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>9</v>
       </c>
@@ -5095,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>9</v>
       </c>
@@ -5128,7 +5248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>9</v>
       </c>
@@ -5161,7 +5281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -5194,7 +5314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>9</v>
       </c>
@@ -5227,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>9</v>
       </c>
@@ -5260,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>9</v>
       </c>
@@ -5294,6 +5414,20 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="H1:H95" xr:uid="{CE108494-39FD-4439-924B-EB989411DEB6}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="10"/>
+        <filter val="14"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="6"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5304,8 +5438,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G1500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="K1111" sqref="K1111"/>
+    <sheetView topLeftCell="D277" workbookViewId="0">
+      <selection activeCell="L890" sqref="L890"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
